--- a/src/test/java/dataProviderPack/credentials.xlsx
+++ b/src/test/java/dataProviderPack/credentials.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">123456a</t>
   </si>
   <si>
-    <t xml:space="preserve">jo1</t>
+    <t xml:space="preserve">joypy3</t>
   </si>
   <si>
     <t xml:space="preserve">123456t</t>
@@ -165,7 +165,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
